--- a/downloads/RSBY Risk Decomp 09.03.24.xlsx
+++ b/downloads/RSBY Risk Decomp 09.03.24.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Measures - Aug 23, 2024 to Aug 29, 2024</t>
+          <t>Measures - Aug 23, 2024 to Aug 30, 2024</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/3/2024 5:32:28 AM</t>
+          <t>9/3/2024 11:22:33 AM</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
         <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>104092284.52</v>
+        <v>103359135.65</v>
       </c>
     </row>
     <row r="13">
@@ -622,40 +622,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.436276</v>
+        <v>-1.583874</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.463469</v>
+        <v>-1.683641</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.862453</v>
+        <v>-1.810365</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.520563</v>
+        <v>-3.081605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.162679</v>
+        <v>-1.68107</v>
       </c>
       <c r="G13" t="n">
-        <v>0.237857</v>
+        <v>-1.110224</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.175869</v>
+        <v>-1.038633</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.384883</v>
+        <v>-0.479648</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.389356</v>
+        <v>-2.093142</v>
       </c>
       <c r="K13" t="n">
-        <v>0.13741</v>
+        <v>-1.725592</v>
       </c>
       <c r="L13" t="n">
-        <v>15.428597</v>
+        <v>12.778687</v>
       </c>
       <c r="M13" t="n">
-        <v>16051540</v>
+        <v>13200525</v>
       </c>
     </row>
     <row r="14">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.890954</v>
+        <v>-3.805156</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.339223</v>
+        <v>-7.247846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.151747</v>
+        <v>-0.71195</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.454271</v>
+        <v>-0.066913</v>
       </c>
       <c r="F14" t="n">
-        <v>8.345592</v>
+        <v>0.958739</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.371707</v>
+        <v>-1.304603</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.802083</v>
+        <v>-2.186944</v>
       </c>
       <c r="I14" t="n">
-        <v>0.016132</v>
+        <v>-0.092262</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.395409</v>
+        <v>-0.02223</v>
       </c>
       <c r="K14" t="n">
-        <v>3.626238</v>
+        <v>0.481359</v>
       </c>
       <c r="L14" t="n">
-        <v>29.992569</v>
+        <v>26.12584</v>
       </c>
       <c r="M14" t="n">
-        <v>31203543.75</v>
+        <v>26988281.25</v>
       </c>
     </row>
     <row r="15">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.821493</v>
+        <v>12.873585</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.333808</v>
+        <v>6.040751</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.140412</v>
+        <v>-1.413953</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.183187</v>
+        <v>-6.44283</v>
       </c>
       <c r="F15" t="n">
-        <v>0.157781</v>
+        <v>-1.902519</v>
       </c>
       <c r="G15" t="n">
-        <v>15.524635</v>
+        <v>14.337093</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.306114</v>
+        <v>5.920731</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.452772</v>
+        <v>-0.595201</v>
       </c>
       <c r="J15" t="n">
-        <v>-7.294237</v>
+        <v>-6.952966</v>
       </c>
       <c r="K15" t="n">
-        <v>0.256045</v>
+        <v>-3.102795</v>
       </c>
       <c r="L15" t="n">
-        <v>8.030675</v>
+        <v>8.042934000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>8354920</v>
+        <v>8308440</v>
       </c>
     </row>
     <row r="16">
@@ -751,40 +751,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.146399</v>
+        <v>4.333311</v>
       </c>
       <c r="C16" t="n">
-        <v>13.672441</v>
+        <v>7.919887</v>
       </c>
       <c r="D16" t="n">
-        <v>13.231573</v>
+        <v>13.441017</v>
       </c>
       <c r="E16" t="n">
-        <v>21.865545</v>
+        <v>18.844763</v>
       </c>
       <c r="F16" t="n">
-        <v>1.816741</v>
+        <v>4.138534</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.240917</v>
+        <v>-0.514749</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.343568</v>
+        <v>-0.827975</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.562933</v>
+        <v>-0.603496</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.379306</v>
+        <v>-2.169193</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.315923</v>
+        <v>-0.719921</v>
       </c>
       <c r="L16" t="n">
-        <v>-74.94190999999999</v>
+        <v>-75.40505</v>
       </c>
       <c r="M16" t="n">
-        <v>-77967750</v>
+        <v>-77894250</v>
       </c>
     </row>
     <row r="17">
@@ -794,40 +794,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.239852</v>
+        <v>-3.52954</v>
       </c>
       <c r="C17" t="n">
-        <v>7.678184</v>
+        <v>2.401481</v>
       </c>
       <c r="D17" t="n">
-        <v>7.414516</v>
+        <v>6.945219</v>
       </c>
       <c r="E17" t="n">
-        <v>13.144547</v>
+        <v>8.215669</v>
       </c>
       <c r="F17" t="n">
-        <v>2.618025</v>
+        <v>4.067337</v>
       </c>
       <c r="G17" t="n">
-        <v>0.164331</v>
+        <v>2.674019</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.605663</v>
+        <v>-1.60121</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.925518</v>
+        <v>-1.988837</v>
       </c>
       <c r="J17" t="n">
-        <v>-8.730831</v>
+        <v>-6.031441</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.778957</v>
+        <v>-4.512518</v>
       </c>
       <c r="L17" t="n">
-        <v>-12.277354</v>
+        <v>-11.823058</v>
       </c>
       <c r="M17" t="n">
-        <v>-12773062.5</v>
+        <v>-12213350.01</v>
       </c>
     </row>
     <row r="18">
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.101726</v>
+        <v>15.847259</v>
       </c>
       <c r="C18" t="n">
-        <v>9.247077000000001</v>
+        <v>13.925742</v>
       </c>
       <c r="D18" t="n">
-        <v>7.779149</v>
+        <v>8.875279000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>16.330484</v>
+        <v>11.151333</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.769597</v>
+        <v>4.350829</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.618886</v>
+        <v>-9.307703999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.826761</v>
+        <v>-7.198294</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.757983</v>
+        <v>-1.970323</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.439016000000001</v>
+        <v>-6.346686</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7108680000000001</v>
+        <v>-3.742166</v>
       </c>
       <c r="L18" t="n">
-        <v>-14.108703</v>
+        <v>-15.250627</v>
       </c>
       <c r="M18" t="n">
-        <v>-14685043.73</v>
+        <v>-15732715.67</v>
       </c>
     </row>
     <row r="19">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.176744</v>
+        <v>1.982488</v>
       </c>
       <c r="C19" t="n">
-        <v>1.453627</v>
+        <v>2.337609</v>
       </c>
       <c r="D19" t="n">
-        <v>0.37842</v>
+        <v>0.469595</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9513239999999999</v>
+        <v>0.039379</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.441569</v>
+        <v>-0.248488</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.259498</v>
+        <v>-2.175286</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.362151</v>
+        <v>-2.257358</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.153524</v>
+        <v>-0.194758</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.987136</v>
+        <v>-0.04187</v>
       </c>
       <c r="K19" t="n">
-        <v>0.732226</v>
+        <v>0.399277</v>
       </c>
       <c r="L19" t="n">
-        <v>-7.858981</v>
+        <v>-8.163385999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>-8176293.75</v>
+        <v>-8432868.75</v>
       </c>
     </row>
     <row r="20">
@@ -923,40 +923,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-14.162743</v>
+        <v>-16.777456</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.275815</v>
+        <v>-14.683292</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.115645</v>
+        <v>-9.53429</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.686892</v>
+        <v>-12.380547</v>
       </c>
       <c r="F20" t="n">
-        <v>0.429487</v>
+        <v>-4.875339</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.525847</v>
+        <v>-9.268098</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.952184</v>
+        <v>-7.138562</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.766735</v>
+        <v>-1.990764</v>
       </c>
       <c r="J20" t="n">
-        <v>-9.240978</v>
+        <v>-6.627293</v>
       </c>
       <c r="K20" t="n">
-        <v>0.306599</v>
+        <v>-3.943954</v>
       </c>
       <c r="L20" t="n">
-        <v>18.255426</v>
+        <v>16.214802</v>
       </c>
       <c r="M20" t="n">
-        <v>19001162.41</v>
+        <v>16727369.34</v>
       </c>
     </row>
     <row r="21">
@@ -966,40 +966,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-10.283513</v>
+        <v>-11.619286</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.863508</v>
+        <v>-2.507985</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.068752</v>
+        <v>-11.037623</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.824557</v>
+        <v>-8.658543</v>
       </c>
       <c r="F21" t="n">
-        <v>-10.873942</v>
+        <v>-11.638743</v>
       </c>
       <c r="G21" t="n">
-        <v>5.148082</v>
+        <v>4.673223</v>
       </c>
       <c r="H21" t="n">
-        <v>2.569913</v>
+        <v>0.887738</v>
       </c>
       <c r="I21" t="n">
-        <v>1.720837</v>
+        <v>1.677952</v>
       </c>
       <c r="J21" t="n">
-        <v>2.826833</v>
+        <v>3.374533</v>
       </c>
       <c r="K21" t="n">
-        <v>8.433781</v>
+        <v>6.854973</v>
       </c>
       <c r="L21" t="n">
-        <v>-16.80264</v>
+        <v>-22.270964</v>
       </c>
       <c r="M21" t="n">
-        <v>-17489029.12</v>
+        <v>-22974972.86</v>
       </c>
     </row>
     <row r="22">
@@ -1009,40 +1009,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.159221</v>
+        <v>0.361871</v>
       </c>
       <c r="C22" t="n">
-        <v>0.124413</v>
+        <v>0.009775000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.414527</v>
+        <v>0.416277</v>
       </c>
       <c r="E22" t="n">
-        <v>0.468966</v>
+        <v>0.367537</v>
       </c>
       <c r="F22" t="n">
-        <v>0.489309</v>
+        <v>0.710714</v>
       </c>
       <c r="G22" t="n">
-        <v>0.033205</v>
+        <v>0.080094</v>
       </c>
       <c r="H22" t="n">
-        <v>0.022716</v>
+        <v>0.001904</v>
       </c>
       <c r="I22" t="n">
-        <v>0.032768</v>
+        <v>0.034825</v>
       </c>
       <c r="J22" t="n">
-        <v>0.094816</v>
+        <v>0.078828</v>
       </c>
       <c r="K22" t="n">
-        <v>0.158096</v>
+        <v>0.230358</v>
       </c>
       <c r="L22" t="n">
-        <v>40.334328</v>
+        <v>40.469803</v>
       </c>
       <c r="M22" t="n">
-        <v>42017561.53</v>
+        <v>41863783.76</v>
       </c>
     </row>
     <row r="23">
@@ -1052,40 +1052,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.027815</v>
+        <v>8.009078000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>17.029016</v>
+        <v>13.850526</v>
       </c>
       <c r="D23" t="n">
-        <v>9.9336</v>
+        <v>8.411991</v>
       </c>
       <c r="E23" t="n">
-        <v>19.813528</v>
+        <v>10.029129</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.140529</v>
+        <v>4.527731</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.838732</v>
+        <v>-3.998803</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.707264</v>
+        <v>-6.086064</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.441373</v>
+        <v>-1.587498</v>
       </c>
       <c r="J23" t="n">
-        <v>-7.353202</v>
+        <v>-4.852243</v>
       </c>
       <c r="K23" t="n">
-        <v>0.676424</v>
+        <v>-3.310478</v>
       </c>
       <c r="L23" t="n">
-        <v>-21.97354</v>
+        <v>-17.940256</v>
       </c>
       <c r="M23" t="n">
-        <v>-22880624.4</v>
+        <v>-18519102.63</v>
       </c>
     </row>
     <row r="24">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-15.428597</v>
+        <v>-12.778687</v>
       </c>
       <c r="M24" t="n">
-        <v>-16051540</v>
+        <v>-13200525</v>
       </c>
     </row>
     <row r="25">
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-29.992569</v>
+        <v>-26.12584</v>
       </c>
       <c r="M25" t="n">
-        <v>-31203543.75</v>
+        <v>-26988281.25</v>
       </c>
     </row>
     <row r="26">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-8.030675</v>
+        <v>-8.042934000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>-8354920</v>
+        <v>-8308440</v>
       </c>
     </row>
     <row r="27">
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>74.94190999999999</v>
+        <v>75.40505</v>
       </c>
       <c r="M27" t="n">
-        <v>77967750</v>
+        <v>77894250</v>
       </c>
     </row>
     <row r="28">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>12.277354</v>
+        <v>11.823058</v>
       </c>
       <c r="M28" t="n">
-        <v>12773062.5</v>
+        <v>12213350.01</v>
       </c>
     </row>
     <row r="29">
@@ -1310,40 +1310,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.127034</v>
+        <v>-3.722058</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.64708</v>
+        <v>-4.409399</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.675548</v>
+        <v>-0.873335</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.66789</v>
+        <v>-0.034847</v>
       </c>
       <c r="F29" t="n">
-        <v>0.818207</v>
+        <v>0.499219</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.268145</v>
+        <v>-2.186108</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.381715</v>
+        <v>-2.279243</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.152665</v>
+        <v>-0.193881</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.96404</v>
+        <v>-0.019833</v>
       </c>
       <c r="K29" t="n">
-        <v>0.755768</v>
+        <v>0.42938</v>
       </c>
       <c r="L29" t="n">
-        <v>14.108703</v>
+        <v>15.250627</v>
       </c>
       <c r="M29" t="n">
-        <v>14685043.73</v>
+        <v>15732715.67</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>7.858981</v>
+        <v>8.163385999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>8176293.75</v>
+        <v>8432868.75</v>
       </c>
     </row>
     <row r="31">
@@ -1396,40 +1396,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.752196</v>
+        <v>3.957374</v>
       </c>
       <c r="C31" t="n">
-        <v>3.42509</v>
+        <v>4.68817</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8741</v>
+        <v>0.928548</v>
       </c>
       <c r="E31" t="n">
-        <v>2.158104</v>
+        <v>0.03705</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.058688</v>
+        <v>-0.5307809999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.268145</v>
+        <v>-2.186108</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.381715</v>
+        <v>-2.279243</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.152665</v>
+        <v>-0.193881</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.96404</v>
+        <v>-0.019833</v>
       </c>
       <c r="K31" t="n">
-        <v>0.755768</v>
+        <v>0.42938</v>
       </c>
       <c r="L31" t="n">
-        <v>-18.255426</v>
+        <v>-16.214802</v>
       </c>
       <c r="M31" t="n">
-        <v>-19001162.41</v>
+        <v>-16727369.34</v>
       </c>
     </row>
     <row r="32">
@@ -1439,40 +1439,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.533173</v>
+        <v>-5.435437</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.152518</v>
+        <v>-6.439182</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.804538</v>
+        <v>-1.275358</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.98636</v>
+        <v>-0.050888</v>
       </c>
       <c r="F32" t="n">
-        <v>0.974436</v>
+        <v>0.729025</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.268145</v>
+        <v>-2.186108</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.381715</v>
+        <v>-2.279243</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.152665</v>
+        <v>-0.193881</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.96404</v>
+        <v>-0.019833</v>
       </c>
       <c r="K32" t="n">
-        <v>0.755768</v>
+        <v>0.42938</v>
       </c>
       <c r="L32" t="n">
-        <v>16.80264</v>
+        <v>22.270964</v>
       </c>
       <c r="M32" t="n">
-        <v>17489029.12</v>
+        <v>22974972.86</v>
       </c>
     </row>
     <row r="33">
@@ -1482,40 +1482,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3.651076</v>
+        <v>-2.64657</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.417973</v>
+        <v>-5.002561</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08578</v>
+        <v>-0.503116</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.09876</v>
+        <v>-0.057552</v>
       </c>
       <c r="F33" t="n">
-        <v>6.089462</v>
+        <v>0.650701</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.397663</v>
+        <v>-1.321389</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.81583</v>
+        <v>-2.198177</v>
       </c>
       <c r="I33" t="n">
-        <v>0.012447</v>
+        <v>-0.094947</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.407772</v>
+        <v>-0.027844</v>
       </c>
       <c r="K33" t="n">
-        <v>3.611534</v>
+        <v>0.475764</v>
       </c>
       <c r="L33" t="n">
-        <v>21.97354</v>
+        <v>17.940256</v>
       </c>
       <c r="M33" t="n">
-        <v>22880624.4</v>
+        <v>18519102.63</v>
       </c>
     </row>
     <row r="34">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>15.060559</v>
+        <v>14.552954</v>
       </c>
       <c r="M34" t="n">
-        <v>15668641.8</v>
+        <v>15033362.4</v>
       </c>
     </row>
     <row r="35">
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.96875</v>
+        <v>3.914924</v>
       </c>
       <c r="M35" t="n">
-        <v>2048240</v>
+        <v>4044160</v>
       </c>
     </row>
     <row r="36">
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>5.405859</v>
+        <v>7.304859</v>
       </c>
       <c r="M36" t="n">
-        <v>5624125.01</v>
+        <v>7546000</v>
       </c>
     </row>
     <row r="37">
@@ -1654,40 +1654,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.644799</v>
+        <v>4.745682</v>
       </c>
       <c r="C37" t="n">
-        <v>8.376535000000001</v>
+        <v>8.970314</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.132622</v>
+        <v>0.90216</v>
       </c>
       <c r="E37" t="n">
-        <v>1.698753</v>
+        <v>0.103198</v>
       </c>
       <c r="F37" t="n">
-        <v>-9.414701000000001</v>
+        <v>-1.166801</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.397663</v>
+        <v>-1.321389</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.81583</v>
+        <v>-2.198177</v>
       </c>
       <c r="I37" t="n">
-        <v>0.012447</v>
+        <v>-0.094947</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.407772</v>
+        <v>-0.027844</v>
       </c>
       <c r="K37" t="n">
-        <v>3.611534</v>
+        <v>0.475764</v>
       </c>
       <c r="L37" t="n">
-        <v>-33.97251</v>
+        <v>-32.16947</v>
       </c>
       <c r="M37" t="n">
-        <v>-35374921.06</v>
+        <v>-33207428.13</v>
       </c>
     </row>
     <row r="38">
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-3.064518</v>
+        <v>-3.256112</v>
       </c>
       <c r="M38" t="n">
-        <v>-3188250</v>
+        <v>-3363600</v>
       </c>
     </row>
     <row r="39">
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.745625</v>
+        <v>0.379918</v>
       </c>
       <c r="M39" t="n">
-        <v>775730</v>
+        <v>392460</v>
       </c>
     </row>
     <row r="40">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.910281</v>
+        <v>1.997258</v>
       </c>
       <c r="M40" t="n">
-        <v>1987410</v>
+        <v>2063190</v>
       </c>
     </row>
     <row r="41">
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.07504</v>
+        <v>6.042917</v>
       </c>
       <c r="M41" t="n">
-        <v>6320325.01</v>
+        <v>6242400</v>
       </c>
     </row>
     <row r="42">
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-3.080871</v>
+        <v>-2.315769</v>
       </c>
       <c r="M42" t="n">
-        <v>-3205263.6</v>
+        <v>-2392215</v>
       </c>
     </row>
     <row r="43">
@@ -1912,40 +1912,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.129908</v>
+        <v>-0.282716</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.805122</v>
+        <v>-0.515135</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.772666</v>
+        <v>-0.860712</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.272046</v>
+        <v>-1.201764</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.103426</v>
+        <v>-0.259828</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.249529</v>
+        <v>-0.523981</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.353951</v>
+        <v>-0.8402500000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.562554</v>
+        <v>-0.602961</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.368758</v>
+        <v>-2.158319</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.307782</v>
+        <v>-0.705201</v>
       </c>
       <c r="L43" t="n">
-        <v>4.379222</v>
+        <v>4.832944</v>
       </c>
       <c r="M43" t="n">
-        <v>4552320.89</v>
+        <v>4992854.76</v>
       </c>
     </row>
     <row r="44">
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.93151</v>
+        <v>8.220143999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>6171000</v>
+        <v>8491500</v>
       </c>
     </row>
     <row r="45">
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.144126</v>
+        <v>-0.141059</v>
       </c>
       <c r="M45" t="n">
-        <v>-149945</v>
+        <v>-145715</v>
       </c>
     </row>
     <row r="46">
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.970201</v>
+        <v>-5.826474</v>
       </c>
       <c r="M46" t="n">
-        <v>2049750</v>
+        <v>-6018812.5</v>
       </c>
     </row>
     <row r="47">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-12.378759</v>
+        <v>-12.456697</v>
       </c>
       <c r="M47" t="n">
-        <v>-12878562.5</v>
+        <v>-12867906.32</v>
       </c>
     </row>
     <row r="48">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>9.902717000000001</v>
+        <v>-1.800342</v>
       </c>
       <c r="M48" t="n">
-        <v>10302546.91</v>
+        <v>-1859773.45</v>
       </c>
     </row>
     <row r="49">
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-7.376601</v>
+        <v>-10.369565</v>
       </c>
       <c r="M49" t="n">
-        <v>-7674437.5</v>
+        <v>-10711875</v>
       </c>
     </row>
     <row r="50">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-8.609754000000001</v>
+        <v>-8.401555999999999</v>
       </c>
       <c r="M50" t="n">
-        <v>-8957380</v>
+        <v>-8678900</v>
       </c>
     </row>
     <row r="51">
@@ -2256,40 +2256,40 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-23.364277</v>
+        <v>-18.86364</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.344369</v>
+        <v>-10.775954</v>
       </c>
       <c r="D51" t="n">
-        <v>6.696489</v>
+        <v>6.620817</v>
       </c>
       <c r="E51" t="n">
-        <v>19.793236</v>
+        <v>15.248761</v>
       </c>
       <c r="F51" t="n">
-        <v>1.452405</v>
+        <v>2.936838</v>
       </c>
       <c r="G51" t="n">
-        <v>13.049465</v>
+        <v>11.610488</v>
       </c>
       <c r="H51" t="n">
-        <v>0.657379</v>
+        <v>5.837185</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.417672</v>
+        <v>-1.540293</v>
       </c>
       <c r="J51" t="n">
-        <v>-10.717424</v>
+        <v>-9.094763</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.25678</v>
+        <v>-2.647083</v>
       </c>
       <c r="L51" t="n">
-        <v>-15.060559</v>
+        <v>-14.552954</v>
       </c>
       <c r="M51" t="n">
-        <v>-15668641.8</v>
+        <v>-15033362.4</v>
       </c>
     </row>
     <row r="52">
@@ -2299,40 +2299,40 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.196222</v>
+        <v>-2.094811</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.07308</v>
+        <v>-1.458377</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.434115</v>
+        <v>-0.761105</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07143099999999999</v>
+        <v>-0.097216</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.450015</v>
+        <v>-1.01367</v>
       </c>
       <c r="G52" t="n">
-        <v>5.110961</v>
+        <v>4.792891</v>
       </c>
       <c r="H52" t="n">
-        <v>4.014023</v>
+        <v>2.936603</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7030459999999999</v>
+        <v>0.658209</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.295876</v>
+        <v>0.215538</v>
       </c>
       <c r="K52" t="n">
-        <v>2.978852</v>
+        <v>3.396344</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.96875</v>
+        <v>-3.914924</v>
       </c>
       <c r="M52" t="n">
-        <v>-2048240</v>
+        <v>-4044160</v>
       </c>
     </row>
     <row r="53">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.061306</v>
+        <v>11.988797</v>
       </c>
       <c r="C53" t="n">
-        <v>7.368702</v>
+        <v>9.844008000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>16.09121</v>
+        <v>15.746173</v>
       </c>
       <c r="E53" t="n">
-        <v>10.655942</v>
+        <v>8.734259</v>
       </c>
       <c r="F53" t="n">
-        <v>10.165544</v>
+        <v>9.965289</v>
       </c>
       <c r="G53" t="n">
-        <v>2.202831</v>
+        <v>2.136513</v>
       </c>
       <c r="H53" t="n">
-        <v>1.088034</v>
+        <v>1.543919</v>
       </c>
       <c r="I53" t="n">
-        <v>1.028659</v>
+        <v>1.060649</v>
       </c>
       <c r="J53" t="n">
-        <v>1.742287</v>
+        <v>1.5083</v>
       </c>
       <c r="K53" t="n">
-        <v>2.656174</v>
+        <v>2.600652</v>
       </c>
       <c r="L53" t="n">
-        <v>49.875454</v>
+        <v>50.262753</v>
       </c>
       <c r="M53" t="n">
-        <v>51889217.38</v>
+        <v>51921981.25</v>
       </c>
     </row>
     <row r="54">
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.194135</v>
+        <v>-1.695713</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.917817</v>
+        <v>-2.042637</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.16562</v>
+        <v>-1.460621</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.2822</v>
+        <v>-1.027267</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.011785</v>
+        <v>-0.624509</v>
       </c>
       <c r="G54" t="n">
-        <v>1.858105</v>
+        <v>2.079297</v>
       </c>
       <c r="H54" t="n">
-        <v>1.250344</v>
+        <v>2.204339</v>
       </c>
       <c r="I54" t="n">
-        <v>0.687483</v>
+        <v>0.676969</v>
       </c>
       <c r="J54" t="n">
-        <v>1.934219</v>
+        <v>1.220617</v>
       </c>
       <c r="K54" t="n">
-        <v>2.439137</v>
+        <v>1.121414</v>
       </c>
       <c r="L54" t="n">
-        <v>-5.405859</v>
+        <v>-7.304859</v>
       </c>
       <c r="M54" t="n">
-        <v>-5624125.01</v>
+        <v>-7546000</v>
       </c>
     </row>
     <row r="55">
@@ -2428,40 +2428,40 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>77.06188</v>
+        <v>66.61803399999999</v>
       </c>
       <c r="C55" t="n">
-        <v>64.08337400000001</v>
+        <v>63.738888</v>
       </c>
       <c r="D55" t="n">
-        <v>52.402966</v>
+        <v>44.398605</v>
       </c>
       <c r="E55" t="n">
-        <v>41.20329</v>
+        <v>50.581936</v>
       </c>
       <c r="F55" t="n">
-        <v>86.16218000000001</v>
+        <v>69.116585</v>
       </c>
       <c r="G55" t="n">
-        <v>19.080664</v>
+        <v>18.54915</v>
       </c>
       <c r="H55" t="n">
-        <v>13.891724</v>
+        <v>15.619225</v>
       </c>
       <c r="I55" t="n">
-        <v>4.918106</v>
+        <v>4.672706</v>
       </c>
       <c r="J55" t="n">
-        <v>9.890516</v>
+        <v>13.6477</v>
       </c>
       <c r="K55" t="n">
-        <v>33.05231</v>
+        <v>28.182337</v>
       </c>
       <c r="L55" t="n">
-        <v>33.97251</v>
+        <v>32.16947</v>
       </c>
       <c r="M55" t="n">
-        <v>35374921.06</v>
+        <v>33207428.13</v>
       </c>
     </row>
     <row r="56">
@@ -2471,40 +2471,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.975503</v>
+        <v>2.806617</v>
       </c>
       <c r="C56" t="n">
-        <v>1.635704</v>
+        <v>2.035506</v>
       </c>
       <c r="D56" t="n">
-        <v>0.048327</v>
+        <v>-0.021811</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.72827</v>
+        <v>-1.391305</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5492010000000001</v>
+        <v>0.448281</v>
       </c>
       <c r="G56" t="n">
-        <v>10.912179</v>
+        <v>7.720758</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9308</v>
+        <v>4.928013</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05028</v>
+        <v>-0.022679</v>
       </c>
       <c r="J56" t="n">
-        <v>-9.921103</v>
+        <v>-3.708779</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.335511</v>
+        <v>1.805883</v>
       </c>
       <c r="L56" t="n">
-        <v>3.064518</v>
+        <v>3.256112</v>
       </c>
       <c r="M56" t="n">
-        <v>3188250</v>
+        <v>3363600</v>
       </c>
     </row>
     <row r="57">
@@ -2514,40 +2514,40 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.118701</v>
+        <v>0.115886</v>
       </c>
       <c r="C57" t="n">
-        <v>0.056179</v>
+        <v>-0.078471</v>
       </c>
       <c r="D57" t="n">
-        <v>0.127819</v>
+        <v>0.090494</v>
       </c>
       <c r="E57" t="n">
-        <v>0.269072</v>
+        <v>0.093581</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.265795</v>
+        <v>0.00978</v>
       </c>
       <c r="G57" t="n">
-        <v>1.339103</v>
+        <v>-2.732223</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.5548729999999999</v>
+        <v>1.628236</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.5465680000000001</v>
+        <v>-0.806445</v>
       </c>
       <c r="J57" t="n">
-        <v>-2.942815</v>
+        <v>-2.137988</v>
       </c>
       <c r="K57" t="n">
-        <v>4.645581</v>
+        <v>-0.337666</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.745625</v>
+        <v>-0.379918</v>
       </c>
       <c r="M57" t="n">
-        <v>-775730</v>
+        <v>-392460</v>
       </c>
     </row>
     <row r="58">
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-2.025133</v>
+        <v>-1.393004</v>
       </c>
       <c r="C58" t="n">
-        <v>-3.250032</v>
+        <v>-2.887606</v>
       </c>
       <c r="D58" t="n">
-        <v>1.767141</v>
+        <v>1.854518</v>
       </c>
       <c r="E58" t="n">
-        <v>2.469423</v>
+        <v>0.578274</v>
       </c>
       <c r="F58" t="n">
-        <v>1.929931</v>
+        <v>1.764848</v>
       </c>
       <c r="G58" t="n">
-        <v>8.917391</v>
+        <v>6.24733</v>
       </c>
       <c r="H58" t="n">
-        <v>12.529357</v>
+        <v>11.397316</v>
       </c>
       <c r="I58" t="n">
-        <v>-2.949467</v>
+        <v>-3.143691</v>
       </c>
       <c r="J58" t="n">
-        <v>-10.541756</v>
+        <v>-2.513085</v>
       </c>
       <c r="K58" t="n">
-        <v>-13.166107</v>
+        <v>-11.590754</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.910281</v>
+        <v>-1.997258</v>
       </c>
       <c r="M58" t="n">
-        <v>-1987410</v>
+        <v>-2063190</v>
       </c>
     </row>
     <row r="59">
@@ -2600,40 +2600,40 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.250946</v>
+        <v>-0.276228</v>
       </c>
       <c r="C59" t="n">
-        <v>5.08113</v>
+        <v>4.068997</v>
       </c>
       <c r="D59" t="n">
-        <v>2.667976</v>
+        <v>2.462096</v>
       </c>
       <c r="E59" t="n">
-        <v>1.002291</v>
+        <v>0.640243</v>
       </c>
       <c r="F59" t="n">
-        <v>1.561862</v>
+        <v>1.213224</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.732092</v>
+        <v>0.409446</v>
       </c>
       <c r="H59" t="n">
-        <v>-6.159558</v>
+        <v>-5.308107</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.40024</v>
+        <v>-1.379436</v>
       </c>
       <c r="J59" t="n">
-        <v>-1.345424</v>
+        <v>-0.919615</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.350474</v>
+        <v>-2.633499</v>
       </c>
       <c r="L59" t="n">
-        <v>-6.07504</v>
+        <v>-6.042917</v>
       </c>
       <c r="M59" t="n">
-        <v>-6320325.01</v>
+        <v>-6242400</v>
       </c>
     </row>
     <row r="60">
@@ -2643,40 +2643,40 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.236117</v>
+        <v>4.62905</v>
       </c>
       <c r="C60" t="n">
-        <v>1.549243</v>
+        <v>1.865304</v>
       </c>
       <c r="D60" t="n">
-        <v>0.232339</v>
+        <v>0.060808</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.935015</v>
+        <v>-1.466101</v>
       </c>
       <c r="F60" t="n">
-        <v>0.905331</v>
+        <v>0.435579</v>
       </c>
       <c r="G60" t="n">
-        <v>19.756662</v>
+        <v>17.904936</v>
       </c>
       <c r="H60" t="n">
-        <v>3.703263</v>
+        <v>6.349701</v>
       </c>
       <c r="I60" t="n">
-        <v>0.240446</v>
+        <v>0.08890199999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>-7.768757</v>
+        <v>-5.495115</v>
       </c>
       <c r="K60" t="n">
-        <v>3.829539</v>
+        <v>2.467237</v>
       </c>
       <c r="L60" t="n">
-        <v>3.080871</v>
+        <v>2.315769</v>
       </c>
       <c r="M60" t="n">
-        <v>3205263.6</v>
+        <v>2392215</v>
       </c>
     </row>
     <row r="61">
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>9.790217</v>
+        <v>9.251324</v>
       </c>
       <c r="M61" t="n">
-        <v>10185505.61</v>
+        <v>9556719.26</v>
       </c>
     </row>
     <row r="62">
@@ -2729,40 +2729,40 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.057777</v>
+        <v>0.793327</v>
       </c>
       <c r="C62" t="n">
-        <v>2.312774</v>
+        <v>1.014863</v>
       </c>
       <c r="D62" t="n">
-        <v>1.726987</v>
+        <v>2.034582</v>
       </c>
       <c r="E62" t="n">
-        <v>3.41912</v>
+        <v>2.430213</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.331258</v>
+        <v>0.970565</v>
       </c>
       <c r="G62" t="n">
-        <v>0.110978</v>
+        <v>-1.470336</v>
       </c>
       <c r="H62" t="n">
-        <v>-3.889329</v>
+        <v>-1.655368</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.257366</v>
+        <v>-1.425301</v>
       </c>
       <c r="J62" t="n">
-        <v>-6.366959</v>
+        <v>-4.364561</v>
       </c>
       <c r="K62" t="n">
-        <v>0.985784</v>
+        <v>-2.634218</v>
       </c>
       <c r="L62" t="n">
-        <v>-4.379222</v>
+        <v>-4.832944</v>
       </c>
       <c r="M62" t="n">
-        <v>-4552320.89</v>
+        <v>-4992854.76</v>
       </c>
     </row>
     <row r="63">
@@ -2772,40 +2772,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.569538</v>
+        <v>1.641195</v>
       </c>
       <c r="C63" t="n">
-        <v>1.437066</v>
+        <v>0.313314</v>
       </c>
       <c r="D63" t="n">
-        <v>1.233555</v>
+        <v>2.129164</v>
       </c>
       <c r="E63" t="n">
-        <v>2.608373</v>
+        <v>2.626063</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.644978</v>
+        <v>0.82686</v>
       </c>
       <c r="G63" t="n">
-        <v>0.807679</v>
+        <v>-1.788368</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.784225</v>
+        <v>-0.300469</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.663075</v>
+        <v>-0.876946</v>
       </c>
       <c r="J63" t="n">
-        <v>-3.586073</v>
+        <v>-2.772897</v>
       </c>
       <c r="K63" t="n">
-        <v>3.614162</v>
+        <v>-1.319446</v>
       </c>
       <c r="L63" t="n">
-        <v>-5.93151</v>
+        <v>-8.220143999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>-6171000</v>
+        <v>-8491500</v>
       </c>
     </row>
     <row r="64">
@@ -2815,40 +2815,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.136117</v>
+        <v>0.12213</v>
       </c>
       <c r="C64" t="n">
-        <v>0.073398</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.010089</v>
+        <v>0.001802</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.07424799999999999</v>
+        <v>-0.028257</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0246</v>
+        <v>0.042575</v>
       </c>
       <c r="G64" t="n">
-        <v>7.944244</v>
+        <v>7.755341</v>
       </c>
       <c r="H64" t="n">
-        <v>3.750419</v>
+        <v>5.430357</v>
       </c>
       <c r="I64" t="n">
-        <v>0.223184</v>
+        <v>0.043256</v>
       </c>
       <c r="J64" t="n">
-        <v>-4.201061</v>
+        <v>-1.738757</v>
       </c>
       <c r="K64" t="n">
-        <v>2.224376</v>
+        <v>3.959056</v>
       </c>
       <c r="L64" t="n">
-        <v>0.144126</v>
+        <v>0.141059</v>
       </c>
       <c r="M64" t="n">
-        <v>149945</v>
+        <v>145715</v>
       </c>
     </row>
     <row r="65">
@@ -2858,40 +2858,40 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.844526</v>
+        <v>4.607462</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.542408</v>
+        <v>2.779085</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.08983</v>
+        <v>3.313181</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.009524</v>
+        <v>2.653535</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.0458</v>
+        <v>3.61526</v>
       </c>
       <c r="G65" t="n">
-        <v>3.605651</v>
+        <v>7.083242</v>
       </c>
       <c r="H65" t="n">
-        <v>2.027469</v>
+        <v>3.760061</v>
       </c>
       <c r="I65" t="n">
-        <v>1.763672</v>
+        <v>1.925229</v>
       </c>
       <c r="J65" t="n">
-        <v>4.178501</v>
+        <v>3.953002</v>
       </c>
       <c r="K65" t="n">
-        <v>6.917526</v>
+        <v>8.139025999999999</v>
       </c>
       <c r="L65" t="n">
-        <v>-1.970201</v>
+        <v>5.826474</v>
       </c>
       <c r="M65" t="n">
-        <v>-2049750</v>
+        <v>6018812.5</v>
       </c>
     </row>
     <row r="66">
@@ -2901,40 +2901,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.583031</v>
+        <v>3.929922</v>
       </c>
       <c r="C66" t="n">
-        <v>0.413411</v>
+        <v>1.305402</v>
       </c>
       <c r="D66" t="n">
-        <v>1.834304</v>
+        <v>1.929174</v>
       </c>
       <c r="E66" t="n">
-        <v>1.786095</v>
+        <v>0.931419</v>
       </c>
       <c r="F66" t="n">
-        <v>2.030537</v>
+        <v>2.267094</v>
       </c>
       <c r="G66" t="n">
-        <v>1.075706</v>
+        <v>2.825903</v>
       </c>
       <c r="H66" t="n">
-        <v>0.245948</v>
+        <v>0.826114</v>
       </c>
       <c r="I66" t="n">
-        <v>0.472459</v>
+        <v>0.524338</v>
       </c>
       <c r="J66" t="n">
-        <v>1.176636</v>
+        <v>0.649008</v>
       </c>
       <c r="K66" t="n">
-        <v>2.137699</v>
+        <v>2.387291</v>
       </c>
       <c r="L66" t="n">
-        <v>12.37876</v>
+        <v>12.456697</v>
       </c>
       <c r="M66" t="n">
-        <v>12878562.5</v>
+        <v>12867906.32</v>
       </c>
     </row>
     <row r="67">
@@ -2944,126 +2944,169 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-3.027922</v>
+        <v>1.118354</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.617357</v>
+        <v>0.569615</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.782908</v>
+        <v>0.713127</v>
       </c>
       <c r="E67" t="n">
-        <v>-3.499528</v>
+        <v>0.505959</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.699263</v>
+        <v>0.785613</v>
       </c>
       <c r="G67" t="n">
-        <v>2.572005</v>
+        <v>5.564171</v>
       </c>
       <c r="H67" t="n">
-        <v>1.20279</v>
+        <v>2.494167</v>
       </c>
       <c r="I67" t="n">
-        <v>1.217982</v>
+        <v>1.34108</v>
       </c>
       <c r="J67" t="n">
-        <v>2.88184</v>
+        <v>2.439316</v>
       </c>
       <c r="K67" t="n">
-        <v>4.868259</v>
+        <v>5.723905</v>
       </c>
       <c r="L67" t="n">
-        <v>-9.902717000000001</v>
+        <v>1.800342</v>
       </c>
       <c r="M67" t="n">
-        <v>-10302546.91</v>
+        <v>1859773.45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>US LONG BOND(CBT) Dec24</t>
+          <t>US DOLLARS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5.467754</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>4.211093</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>7.011729</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>6.351983</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>6.602172</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>6.234967</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>4.204137</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3.030669</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>7.022111</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>11.663888</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>7.376601</v>
+        <v>0.016119</v>
       </c>
       <c r="M68" t="n">
-        <v>7674437.5</v>
+        <v>16651.38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>US LONG BOND(CBT) Dec24</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>12.078819</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.811140999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.022293</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9.103127000000001</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10.827102</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10.433743</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6.698392</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.272273</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7.619703</v>
+      </c>
+      <c r="K69" t="n">
+        <v>13.695894</v>
+      </c>
+      <c r="L69" t="n">
+        <v>10.369565</v>
+      </c>
+      <c r="M69" t="n">
+        <v>10711875</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>WTI CRUDE FUTURE  Oct24</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>12.377159</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.184883</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-1.069232</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-7.838196</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.06427099999999999</v>
-      </c>
-      <c r="G69" t="n">
-        <v>12.092378</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-0.158141</v>
-      </c>
-      <c r="I69" t="n">
-        <v>-0.39596</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-7.424036</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.097284</v>
-      </c>
-      <c r="L69" t="n">
-        <v>8.609754000000001</v>
-      </c>
-      <c r="M69" t="n">
-        <v>8957380</v>
+      <c r="B70" t="n">
+        <v>11.165247</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.144539</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.502679</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-6.929794</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-1.916574</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11.903776</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.950504</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.605549</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-7.159268</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-2.992295</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.401555999999999</v>
+      </c>
+      <c r="M70" t="n">
+        <v>8678900</v>
       </c>
     </row>
   </sheetData>
